--- a/data/db_2.xlsx
+++ b/data/db_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sen/Desktop/gom/gom1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A87FA6CF-2CBC-3044-AD47-7CC75B127C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB179EEB-EC64-2847-934C-69FEF7DAD045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15440" yWindow="5180" windowWidth="27700" windowHeight="16880" xr2:uid="{F5119805-6706-8940-9A07-A58F58E23BA6}"/>
+    <workbookView xWindow="9640" yWindow="6240" windowWidth="27700" windowHeight="16880" xr2:uid="{F5119805-6706-8940-9A07-A58F58E23BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,12 +86,6 @@
     <t>text3</t>
   </si>
   <si>
-    <t>안녕하세요.</t>
-  </si>
-  <si>
-    <t>당신의 하루는 밝게 빛날 거예요.</t>
-  </si>
-  <si>
     <t>반가워요!</t>
   </si>
   <si>
@@ -107,15 +101,6 @@
     <t>마음의 평화를 찾으셨나요?</t>
   </si>
   <si>
-    <t>감정의 파도를 잘 다스리고 있군요.</t>
-  </si>
-  <si>
-    <t>당신의 감수성은 큰 장점이에요.</t>
-  </si>
-  <si>
-    <t>내면의 목소리에 귀 기울여 보세요.</t>
-  </si>
-  <si>
     <t>중요한 힌트를 얻을 수 있습니다.</t>
   </si>
   <si>
@@ -147,13 +132,80 @@
   </si>
   <si>
     <t>에너지를 재충전할 시간을 가지세요.</t>
+  </si>
+  <si>
+    <t>사랑해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정효원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정효원은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사랑스러워</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개죽이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +226,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,11 +264,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,7 +614,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -565,11 +637,11 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -578,10 +650,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -590,10 +662,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -602,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -611,11 +683,11 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -623,11 +695,11 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -636,7 +708,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -646,10 +718,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -658,10 +730,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -670,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -680,10 +752,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -692,10 +764,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1"/>
     </row>
